--- a/账单.xlsx
+++ b/账单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>人员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,13 @@
   </si>
   <si>
     <t>85℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友聚餐</t>
+  </si>
+  <si>
+    <t>食堂三楼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +619,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,12 +688,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="4">
+        <v>10.18</v>
+      </c>
+      <c r="B4" s="7">
+        <v>47</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10">
+        <v>24</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
